--- a/REGULAR/RE-ENCODE/BAYHON, VIOLETA.xlsx
+++ b/REGULAR/RE-ENCODE/BAYHON, VIOLETA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6256F3-FDD5-47D1-9DAA-180238D0AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00214E61-5017-47D5-88BE-A1D6FC3BCB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>ADMIN ADIE I</t>
+  </si>
+  <si>
+    <t>4/26, 5/2/2023</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1489,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.857</v>
+        <v>107.857</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3277,9 +3280,13 @@
       <c r="A93" s="40">
         <v>45017</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>2</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -3289,7 +3296,9 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
